--- a/atest/TestCases/Defaults/XLS/defaults_xlsx.xlsx
+++ b/atest/TestCases/Defaults/XLS/defaults_xlsx.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\robotframework-datadriver\atest\01_TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Source/Snooz82/robotframework-datadriver/atest/TestCases/Defaults/XLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6C1E937B-D090-4D61-AADB-91FB0596ACC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5392DCD-CBD3-1049-86A8-EC8E32DAC9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FFED17C-EA5B-4D45-9C23-AC4799ECC8DB}"/>
+    <workbookView xWindow="55520" yWindow="380" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{4FFED17C-EA5B-4D45-9C23-AC4799ECC8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="defaults" sheetId="1" r:id="rId1"/>
+    <sheet name="MySheetName" sheetId="2" r:id="rId2"/>
+    <sheet name="DataTypes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -88,12 +90,42 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>Test 123</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>WAHR</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>05.06.21</t>
+  </si>
+  <si>
+    <t>${1}</t>
+  </si>
+  <si>
+    <t>${1.65}</t>
+  </si>
+  <si>
+    <t>${true}</t>
+  </si>
+  <si>
+    <t>${{int("1")+5}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,8 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,22 +479,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE95318-C25C-43AF-8B6E-43C649C4EE86}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -506,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -530,7 +568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -548,7 +586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -558,6 +596,279 @@
       <c r="D5" t="str">
         <f>"default "&amp;B5&amp;" "&amp;C5</f>
         <v>default €‚ƒ„…†‡ˆ‰Š‹ŒŽ‘’“”•–—˜™š›œžŸ €‚ƒ„…†‡ˆ‰Š‹ŒŽ‘’“”•–—˜™š›œžŸ</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BA974B-6B5F-BA4E-90E0-DD04E44E2A86}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"default "&amp;B3&amp;" "&amp;C3</f>
+        <v>default b b</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="str">
+        <f>A4</f>
+        <v>My Test Name</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"default "&amp;B5&amp;" "&amp;C5</f>
+        <v>default €‚ƒ„…†‡ˆ‰Š‹ŒŽ‘’“”•–—˜™š›œžŸ €‚ƒ„…†‡ˆ‰Š‹ŒŽ‘’“”•–—˜™š›œžŸ</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C3BD46-D8AF-D148-8100-2AAD99753A79}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.33368055555555554</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>3.4142299999999999</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41187</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>

--- a/atest/TestCases/Defaults/XLS/defaults_xlsx.xlsx
+++ b/atest/TestCases/Defaults/XLS/defaults_xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Source/Snooz82/robotframework-datadriver/atest/TestCases/Defaults/XLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5392DCD-CBD3-1049-86A8-EC8E32DAC9B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956F31B3-BBA8-A547-83F8-A4CF06677C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55520" yWindow="380" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{4FFED17C-EA5B-4D45-9C23-AC4799ECC8DB}"/>
+    <workbookView xWindow="70780" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{4FFED17C-EA5B-4D45-9C23-AC4799ECC8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="defaults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -98,25 +98,58 @@
     <t>Hello</t>
   </si>
   <si>
-    <t>WAHR</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>05.06.21</t>
-  </si>
-  <si>
-    <t>${1}</t>
-  </si>
-  <si>
-    <t>${1.65}</t>
-  </si>
-  <si>
-    <t>${true}</t>
-  </si>
-  <si>
-    <t>${{int("1")+5}}</t>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>17.10.13 05:00</t>
+  </si>
+  <si>
+    <t>&lt;class 'int'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'float'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'datetime.time'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'datetime.datetime'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'str'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'bool'&gt;</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -155,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -163,6 +196,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -744,17 +780,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C3BD46-D8AF-D148-8100-2AAD99753A79}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -762,7 +798,7 @@
     <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,103 +811,121 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.33368055555555554</v>
-      </c>
-      <c r="E2" s="4">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="b">
+        <f>(1=1)</f>
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>3.4142299999999999</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>0.35434027777777777</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>41551</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>41564.208333333336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1">
-        <v>41187</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
